--- a/output/access-medicationrequest-clin.xlsx
+++ b/output/access-medicationrequest-clin.xlsx
@@ -165,7 +165,7 @@
     <t/>
   </si>
   <si>
-    <t>Ordering of medication for patient or group</t>
+    <t>ACCESS MedicationRequest (Clinician) Profile</t>
   </si>
   <si>
     <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
